--- a/biology/Zoologie/Coucou_des_Flandres/Coucou_des_Flandres.xlsx
+++ b/biology/Zoologie/Coucou_des_Flandres/Coucou_des_Flandres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La coucou des Flandres est une variété locale de poule, originaire des Flandres, du côté belge et du côté français.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La coucou des Flandres fait partie des races les plus complètes : race régionale (Flandres), elle est acclimatée à son habitat où elle se trouve rustique et résistante aux maladies. Excellente pondeuse (hiver et été), chair de qualité, autosexable, précocité et aptitude à la couvaison, la coucou des Flandres est une race presque parfaite et on peut lui reprocher parfois son besoin de grands espaces et son tempérament querelleur (essentiellement chez la poule) développé principalement pour obtenir l’ordre social au sein du poulailler.
 </t>
@@ -543,7 +557,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La coucou des Flandres (parfois: la coucou de la Dendre) peut se confondre avec la coucou de Malines, mais c'est une variété plus ancienne. Son arrivée en France daterait du XVIe siècle; son origine première serait sans doute les Pays-Bas. Toutes les races coucous semblent être apparues sur les zones côtières de la mer du Nord et de la Manche (la coucou Picarde aussi, donc).
 Édouard Henry Labbe l’expose pour la première fois à Quesnoy-sur-Deûle en 1880, c’est le premier ardent défenseur du coucou des Flandres. Le deuxième ardent défenseur local de la race fut Detroy des Aviculteurs du Nord.
@@ -579,7 +595,9 @@
           <t>Situation actuelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2012, La race Coucou des Flandres connaît toujours une croissance constante.  Aujourd'hui nous pouvons compter une bonne cinquantaine d'éleveurs dans toute la France avec un cheptel de 100-120 animaux de race pure.
 </t>
@@ -610,9 +628,11 @@
           <t>Championnat et Concours</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>France : Un champion et un vice-champion de France, catégorie Oie flamande[1] sont désignés chaque année par le Club des Volailles Coucou des Flandres et de Picardie et de l’Oie Flamande[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>France : Un champion et un vice-champion de France, catégorie Oie flamande sont désignés chaque année par le Club des Volailles Coucou des Flandres et de Picardie et de l’Oie Flamande.
 Palmarès 2009 - Champion de France: Guche Gaetan Vice-Champion de France: Jean-Luc Leblond
 Championnat de France 2010 : Champion de France : Jourdain Christophe Vice-Champion de France Guhce Gaetan
 Championnat de France 2011: Champion &amp; Vice-champion de France: Guche Gaetan
@@ -646,7 +666,9 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Masse idéale : coq : 2,5 à 3,5 kg ; poule : 2 à 3 kg
 Taille : de 60 à 65 cm pour le coq, de 40 à 45 centimètres pour la poule.
@@ -685,7 +707,9 @@
           <t>Sexage</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La coucou des Flandres est une race autosexable. Les poussins mâles sont plus clair. 
 </t>
@@ -716,7 +740,9 @@
           <t>Baguage</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">France :  Poule 18 mm Coq 20 mm
 </t>
@@ -747,7 +773,9 @@
           <t>Ponte</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">La Coucou des Flandres est une bonne pondeuse même d'hiver. Une bonne poule peut pondre de 160-180 œufs de 55-60 g et de couleur blanc à crème par an. 
 </t>
@@ -779,6 +807,8 @@
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
